--- a/biology/Botanique/Carduus_argentatus/Carduus_argentatus.xlsx
+++ b/biology/Botanique/Carduus_argentatus/Carduus_argentatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carduus argentatus est une espèce de plante à fleurs du genre Carduus et de la famille des Asteraceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée thérophyte annuelle d'une taille de 20 à 60 cm, qui peut atteindre un mètre. Elle fleurit de mars à juin.
-Originaire du nord-est de l'espace méditerranéen, adaptée à la sècheresse, elle est présente jusqu'à une altitude de 1 400 mètres en Crète[2].
+Originaire du nord-est de l'espace méditerranéen, adaptée à la sècheresse, elle est présente jusqu'à une altitude de 1 400 mètres en Crète.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 octobre 2014) :
 sous-espèce Carduus argentatus subsp. apicularis Meikle</t>
         </is>
       </c>
